--- a/BackTest/2019-10-26 BackTest FNB.xlsx
+++ b/BackTest/2019-10-26 BackTest FNB.xlsx
@@ -906,17 +906,13 @@
         <v>13.22</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K15" t="n">
-        <v>13.1</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
@@ -945,22 +941,14 @@
         <v>13.16</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -988,22 +976,14 @@
         <v>13.14</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1031,22 +1011,14 @@
         <v>13.1</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1074,22 +1046,14 @@
         <v>13.07999999999999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1117,22 +1081,14 @@
         <v>13.07999999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1160,22 +1116,14 @@
         <v>13.06</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>13</v>
-      </c>
-      <c r="K21" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1203,22 +1151,14 @@
         <v>13.04</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>13</v>
-      </c>
-      <c r="K22" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1246,22 +1186,14 @@
         <v>13.04</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>13</v>
-      </c>
-      <c r="K23" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1289,22 +1221,14 @@
         <v>13.04</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K24" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1332,22 +1256,14 @@
         <v>13.04</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1386,11 +1302,7 @@
       <c r="K26" t="n">
         <v>13.1</v>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1431,7 +1343,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -1474,7 +1386,7 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M28" t="n">
@@ -1515,11 +1427,7 @@
       <c r="K29" t="n">
         <v>13.1</v>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1560,7 +1468,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M30" t="n">
@@ -1762,14 +1670,12 @@
         <v>13.2</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
         <v>13.1</v>
       </c>
@@ -1805,14 +1711,12 @@
         <v>13.22</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
         <v>13.1</v>
       </c>
@@ -1848,14 +1752,12 @@
         <v>13.22</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
         <v>13.1</v>
       </c>
@@ -1891,14 +1793,12 @@
         <v>13.24</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
         <v>13.1</v>
       </c>
@@ -1934,14 +1834,12 @@
         <v>13.26</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
         <v>13.1</v>
       </c>
@@ -1977,14 +1875,12 @@
         <v>13.28</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
         <v>13.1</v>
       </c>
@@ -2020,14 +1916,12 @@
         <v>13.28</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
         <v>13.1</v>
       </c>
@@ -2063,14 +1957,12 @@
         <v>13.28</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
         <v>13.1</v>
       </c>
@@ -2106,14 +1998,12 @@
         <v>13.26</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
         <v>13.1</v>
       </c>
@@ -2149,14 +2039,12 @@
         <v>13.26</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
         <v>13.1</v>
       </c>
@@ -2192,14 +2080,12 @@
         <v>13.26</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
         <v>13.1</v>
       </c>
@@ -2235,14 +2121,12 @@
         <v>13.26</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
         <v>13.1</v>
       </c>
@@ -2278,14 +2162,12 @@
         <v>13.3</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>13.4</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
         <v>13.1</v>
       </c>
@@ -2321,14 +2203,12 @@
         <v>13.34</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>13.4</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
         <v>13.1</v>
       </c>
@@ -2364,14 +2244,12 @@
         <v>13.36</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
         <v>13.1</v>
       </c>
@@ -2407,14 +2285,12 @@
         <v>13.38</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
         <v>13.1</v>
       </c>
@@ -2614,14 +2490,12 @@
         <v>13.34</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>13.4</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
         <v>13.1</v>
       </c>
@@ -2657,14 +2531,12 @@
         <v>13.34</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>13.4</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
         <v>13.1</v>
       </c>
@@ -2987,14 +2859,12 @@
         <v>13.24</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
         <v>13.1</v>
       </c>
@@ -3030,14 +2900,12 @@
         <v>13.22</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
         <v>13.1</v>
       </c>
@@ -3073,14 +2941,12 @@
         <v>13.2</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
         <v>13.1</v>
       </c>
@@ -3116,14 +2982,12 @@
         <v>13.2</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
         <v>13.1</v>
       </c>
@@ -3159,14 +3023,12 @@
         <v>13.16</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>13.1</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
         <v>13.1</v>
       </c>
@@ -3202,14 +3064,12 @@
         <v>13.16</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
         <v>13.1</v>
       </c>
@@ -3245,14 +3105,12 @@
         <v>13.12</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
         <v>13.1</v>
       </c>
@@ -3288,14 +3146,12 @@
         <v>13.1</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>13.1</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
         <v>13.1</v>
       </c>
@@ -3331,14 +3187,12 @@
         <v>13.1</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
         <v>13.1</v>
       </c>
@@ -3374,14 +3228,12 @@
         <v>13.12</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
         <v>13.1</v>
       </c>
@@ -3417,14 +3269,12 @@
         <v>13.1</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>13.1</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
         <v>13.1</v>
       </c>
@@ -3460,14 +3310,12 @@
         <v>13.14</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
         <v>13.1</v>
       </c>
@@ -3503,14 +3351,12 @@
         <v>13.14</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
         <v>13.1</v>
       </c>
@@ -3546,14 +3392,12 @@
         <v>13.12</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>13.1</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
         <v>13.1</v>
       </c>
@@ -3589,14 +3433,12 @@
         <v>13.14</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
         <v>13.1</v>
       </c>
@@ -3632,14 +3474,12 @@
         <v>13.16</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
         <v>13.1</v>
       </c>
@@ -3675,14 +3515,12 @@
         <v>13.16</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
         <v>13.1</v>
       </c>
@@ -3718,14 +3556,12 @@
         <v>13.18</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
         <v>13.1</v>
       </c>
@@ -3761,14 +3597,12 @@
         <v>13.18</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>13.1</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
         <v>13.1</v>
       </c>
@@ -3804,14 +3638,12 @@
         <v>13.18</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
         <v>13.1</v>
       </c>
@@ -3847,14 +3679,12 @@
         <v>13.16</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>13.1</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
         <v>13.1</v>
       </c>
@@ -3890,14 +3720,12 @@
         <v>13.16</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
         <v>13.1</v>
       </c>
@@ -3933,14 +3761,12 @@
         <v>13.16</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
         <v>13.1</v>
       </c>
@@ -3976,14 +3802,12 @@
         <v>13.16</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>13.1</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
         <v>13.1</v>
       </c>
@@ -4019,14 +3843,12 @@
         <v>13.18</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
         <v>13.1</v>
       </c>
@@ -4062,14 +3884,12 @@
         <v>13.22</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
         <v>13.1</v>
       </c>
@@ -4105,14 +3925,12 @@
         <v>13.22</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
         <v>13.1</v>
       </c>
@@ -4148,14 +3966,12 @@
         <v>13.2</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>13.1</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
         <v>13.1</v>
       </c>
@@ -4191,14 +4007,12 @@
         <v>13.22</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
         <v>13.1</v>
       </c>
@@ -4234,14 +4048,12 @@
         <v>13.2</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
         <v>13.1</v>
       </c>
@@ -4277,14 +4089,12 @@
         <v>13.18</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
         <v>13.1</v>
       </c>
@@ -4320,14 +4130,12 @@
         <v>13.2</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
         <v>13.1</v>
       </c>
@@ -4363,14 +4171,12 @@
         <v>13.24</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
         <v>13.1</v>
       </c>
@@ -4406,14 +4212,12 @@
         <v>13.26</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
         <v>13.1</v>
       </c>
@@ -4449,14 +4253,12 @@
         <v>13.28</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
         <v>13.1</v>
       </c>
@@ -4492,14 +4294,12 @@
         <v>13.3</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
         <v>13.1</v>
       </c>
@@ -4535,14 +4335,12 @@
         <v>13.32</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
         <v>13.1</v>
       </c>
@@ -4578,14 +4376,12 @@
         <v>13.32</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
         <v>13.1</v>
       </c>
@@ -4621,14 +4417,12 @@
         <v>13.32</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
         <v>13.1</v>
       </c>
@@ -4664,14 +4458,12 @@
         <v>13.34</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>13.4</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
         <v>13.1</v>
       </c>
@@ -4707,14 +4499,12 @@
         <v>13.38</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>13.4</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
         <v>13.1</v>
       </c>
@@ -4750,14 +4540,12 @@
         <v>13.38</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>13.4</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
         <v>13.1</v>
       </c>
@@ -7666,7 +7454,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
@@ -7674,11 +7462,11 @@
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M176" t="n">
-        <v>1.071335877862595</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -7707,11 +7495,17 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7742,11 +7536,17 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7780,8 +7580,14 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7815,8 +7621,14 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7850,8 +7662,14 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7885,8 +7703,14 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7920,8 +7744,14 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7955,8 +7785,14 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7990,8 +7826,14 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -8025,8 +7867,14 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -8060,8 +7908,14 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -8095,8 +7949,14 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -8130,8 +7990,14 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -8165,8 +8031,14 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -8200,8 +8072,14 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -8235,8 +8113,14 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8270,8 +8154,14 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8305,8 +8195,14 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8340,8 +8236,14 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8375,8 +8277,14 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8410,8 +8318,14 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8445,8 +8359,14 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8480,8 +8400,14 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8515,8 +8441,14 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8550,8 +8482,14 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8585,8 +8523,14 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8620,8 +8564,14 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8655,8 +8605,14 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8690,8 +8646,14 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8725,8 +8687,14 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8760,8 +8728,14 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8795,8 +8769,14 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8830,8 +8810,14 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8865,8 +8851,14 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8900,8 +8892,14 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8935,8 +8933,14 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8970,8 +8974,14 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -9005,8 +9015,14 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -9040,8 +9056,14 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -9075,8 +9097,14 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -9110,8 +9138,14 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -9145,8 +9179,14 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -9180,8 +9220,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -9215,8 +9261,14 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9250,8 +9302,14 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9285,8 +9343,14 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9320,8 +9384,14 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9355,8 +9425,14 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -9390,8 +9466,14 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -9425,8 +9507,14 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -9460,8 +9548,14 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -9495,8 +9589,14 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -9530,8 +9630,14 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -9565,8 +9671,14 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -9600,8 +9712,14 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -9635,8 +9753,14 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9670,8 +9794,14 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9705,8 +9835,14 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9740,8 +9876,14 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9775,8 +9917,14 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9810,8 +9958,14 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9845,8 +9999,14 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9880,8 +10040,14 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9915,8 +10081,14 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9950,8 +10122,14 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9985,8 +10163,14 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -10020,8 +10204,14 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -10055,8 +10245,14 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -10090,8 +10286,14 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -10125,8 +10327,14 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -10160,8 +10368,14 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -10195,8 +10409,14 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -10230,8 +10450,14 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -10265,8 +10491,14 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -10300,8 +10532,14 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -10335,8 +10573,14 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -10370,8 +10614,14 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -10405,8 +10655,14 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -10440,8 +10696,14 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -10475,8 +10737,14 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -10510,8 +10778,14 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -10545,8 +10819,14 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10580,8 +10860,14 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10615,8 +10901,14 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10650,8 +10942,14 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10685,8 +10983,14 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10720,8 +11024,14 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10755,8 +11065,14 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10790,8 +11106,14 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -10825,8 +11147,14 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -10860,8 +11188,14 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -10895,8 +11229,14 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -10930,8 +11270,14 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -10965,8 +11311,14 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -11000,8 +11352,14 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -11035,8 +11393,14 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -11070,8 +11434,14 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -11105,8 +11475,14 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -11140,8 +11516,14 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -11175,8 +11557,14 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -11210,8 +11598,14 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -11245,8 +11639,14 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -11280,8 +11680,14 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -11315,8 +11721,14 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -11350,8 +11762,14 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -11385,8 +11803,14 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -11420,8 +11844,14 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -11455,8 +11885,14 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -11490,8 +11926,14 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -11525,8 +11967,14 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -11560,8 +12008,14 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -11595,8 +12049,14 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -11630,8 +12090,14 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -11665,8 +12131,14 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -11700,8 +12172,14 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -11735,8 +12213,14 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -11770,8 +12254,14 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -11805,8 +12295,14 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -11840,8 +12336,14 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -11875,8 +12377,14 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -11910,8 +12418,14 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -11945,8 +12459,14 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -11980,8 +12500,14 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -12015,8 +12541,14 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -12050,8 +12582,14 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -12085,8 +12623,14 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -12120,8 +12664,14 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -12155,8 +12705,14 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -12190,8 +12746,14 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -12225,8 +12787,14 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -12260,8 +12828,14 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -12295,8 +12869,14 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -12330,8 +12910,14 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -12365,8 +12951,14 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -12400,8 +12992,14 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -12435,8 +13033,14 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -12470,8 +13074,14 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -12505,8 +13115,14 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -12540,8 +13156,14 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -12575,8 +13197,14 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -12610,8 +13238,14 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -12645,8 +13279,14 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -12680,8 +13320,14 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -12715,8 +13361,14 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -12750,8 +13402,14 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -12785,8 +13443,14 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -12820,8 +13484,14 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -12855,8 +13525,14 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -12890,8 +13566,14 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -12925,8 +13607,14 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -12960,8 +13648,14 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M327" t="n">
         <v>1</v>
       </c>
@@ -12995,8 +13689,14 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M328" t="n">
         <v>1</v>
       </c>
@@ -13030,8 +13730,14 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M329" t="n">
         <v>1</v>
       </c>
@@ -13065,8 +13771,14 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M330" t="n">
         <v>1</v>
       </c>
@@ -13100,8 +13812,14 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M331" t="n">
         <v>1</v>
       </c>
@@ -13135,8 +13853,14 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M332" t="n">
         <v>1</v>
       </c>
@@ -13170,8 +13894,14 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M333" t="n">
         <v>1</v>
       </c>
@@ -13205,8 +13935,14 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M334" t="n">
         <v>1</v>
       </c>
@@ -13240,8 +13976,14 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M335" t="n">
         <v>1</v>
       </c>
@@ -13275,8 +14017,14 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M336" t="n">
         <v>1</v>
       </c>
@@ -13310,8 +14058,14 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M337" t="n">
         <v>1</v>
       </c>
@@ -13345,8 +14099,14 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M338" t="n">
         <v>1</v>
       </c>
@@ -13380,8 +14140,14 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M339" t="n">
         <v>1</v>
       </c>
@@ -13415,8 +14181,14 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M340" t="n">
         <v>1</v>
       </c>
@@ -13450,8 +14222,14 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M341" t="n">
         <v>1</v>
       </c>
@@ -13485,8 +14263,14 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M342" t="n">
         <v>1</v>
       </c>
@@ -13520,8 +14304,14 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M343" t="n">
         <v>1</v>
       </c>
@@ -13555,8 +14345,14 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M344" t="n">
         <v>1</v>
       </c>
@@ -13590,8 +14386,14 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M345" t="n">
         <v>1</v>
       </c>
@@ -13625,8 +14427,14 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M346" t="n">
         <v>1</v>
       </c>
@@ -13660,8 +14468,14 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="inlineStr"/>
+      <c r="K347" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M347" t="n">
         <v>1</v>
       </c>
@@ -13695,8 +14509,14 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="inlineStr"/>
+      <c r="K348" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M348" t="n">
         <v>1</v>
       </c>
@@ -13730,8 +14550,14 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="inlineStr"/>
+      <c r="K349" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M349" t="n">
         <v>1</v>
       </c>
@@ -13765,8 +14591,14 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="inlineStr"/>
+      <c r="K350" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M350" t="n">
         <v>1</v>
       </c>
@@ -13800,8 +14632,14 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="inlineStr"/>
+      <c r="K351" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M351" t="n">
         <v>1</v>
       </c>
@@ -13835,8 +14673,14 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="inlineStr"/>
+      <c r="K352" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M352" t="n">
         <v>1</v>
       </c>
@@ -13870,8 +14714,14 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="inlineStr"/>
+      <c r="K353" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M353" t="n">
         <v>1</v>
       </c>
@@ -13905,8 +14755,14 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="inlineStr"/>
+      <c r="K354" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M354" t="n">
         <v>1</v>
       </c>
@@ -13940,8 +14796,14 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="inlineStr"/>
+      <c r="K355" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M355" t="n">
         <v>1</v>
       </c>
@@ -13975,8 +14837,14 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="inlineStr"/>
+      <c r="K356" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M356" t="n">
         <v>1</v>
       </c>
@@ -14010,8 +14878,14 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="inlineStr"/>
+      <c r="K357" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M357" t="n">
         <v>1</v>
       </c>
@@ -14045,8 +14919,14 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="inlineStr"/>
+      <c r="K358" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M358" t="n">
         <v>1</v>
       </c>
@@ -14080,8 +14960,14 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="inlineStr"/>
+      <c r="K359" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M359" t="n">
         <v>1</v>
       </c>
@@ -14115,8 +15001,14 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
-      <c r="L360" t="inlineStr"/>
+      <c r="K360" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M360" t="n">
         <v>1</v>
       </c>
@@ -14150,8 +15042,14 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
-      <c r="L361" t="inlineStr"/>
+      <c r="K361" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M361" t="n">
         <v>1</v>
       </c>
@@ -14185,8 +15083,14 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
-      <c r="L362" t="inlineStr"/>
+      <c r="K362" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M362" t="n">
         <v>1</v>
       </c>
@@ -14220,8 +15124,14 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
-      <c r="L363" t="inlineStr"/>
+      <c r="K363" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M363" t="n">
         <v>1</v>
       </c>
@@ -14255,8 +15165,14 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
-      <c r="L364" t="inlineStr"/>
+      <c r="K364" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M364" t="n">
         <v>1</v>
       </c>
@@ -14290,8 +15206,14 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
-      <c r="L365" t="inlineStr"/>
+      <c r="K365" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M365" t="n">
         <v>1</v>
       </c>
@@ -14325,8 +15247,14 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
-      <c r="L366" t="inlineStr"/>
+      <c r="K366" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M366" t="n">
         <v>1</v>
       </c>
@@ -14360,8 +15288,14 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
-      <c r="L367" t="inlineStr"/>
+      <c r="K367" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M367" t="n">
         <v>1</v>
       </c>
@@ -14395,8 +15329,14 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
-      <c r="L368" t="inlineStr"/>
+      <c r="K368" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M368" t="n">
         <v>1</v>
       </c>
@@ -14430,8 +15370,14 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
-      <c r="L369" t="inlineStr"/>
+      <c r="K369" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M369" t="n">
         <v>1</v>
       </c>
@@ -14465,8 +15411,14 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="inlineStr"/>
+      <c r="K370" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M370" t="n">
         <v>1</v>
       </c>
@@ -14500,8 +15452,14 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
-      <c r="L371" t="inlineStr"/>
+      <c r="K371" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M371" t="n">
         <v>1</v>
       </c>
@@ -14535,8 +15493,14 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
-      <c r="L372" t="inlineStr"/>
+      <c r="K372" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M372" t="n">
         <v>1</v>
       </c>
@@ -14570,8 +15534,14 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="inlineStr"/>
+      <c r="K373" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M373" t="n">
         <v>1</v>
       </c>
@@ -14605,8 +15575,14 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
-      <c r="L374" t="inlineStr"/>
+      <c r="K374" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L374" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M374" t="n">
         <v>1</v>
       </c>
@@ -14640,8 +15616,14 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
-      <c r="L375" t="inlineStr"/>
+      <c r="K375" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M375" t="n">
         <v>1</v>
       </c>
@@ -14675,8 +15657,14 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
-      <c r="L376" t="inlineStr"/>
+      <c r="K376" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M376" t="n">
         <v>1</v>
       </c>
@@ -14710,8 +15698,14 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
-      <c r="L377" t="inlineStr"/>
+      <c r="K377" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M377" t="n">
         <v>1</v>
       </c>
@@ -14745,8 +15739,14 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
-      <c r="L378" t="inlineStr"/>
+      <c r="K378" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M378" t="n">
         <v>1</v>
       </c>
@@ -14780,8 +15780,14 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
-      <c r="L379" t="inlineStr"/>
+      <c r="K379" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M379" t="n">
         <v>1</v>
       </c>
@@ -14815,8 +15821,14 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
-      <c r="L380" t="inlineStr"/>
+      <c r="K380" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M380" t="n">
         <v>1</v>
       </c>
@@ -14850,8 +15862,14 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
-      <c r="L381" t="inlineStr"/>
+      <c r="K381" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M381" t="n">
         <v>1</v>
       </c>
@@ -14885,8 +15903,14 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
-      <c r="L382" t="inlineStr"/>
+      <c r="K382" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M382" t="n">
         <v>1</v>
       </c>
@@ -14920,8 +15944,14 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
-      <c r="L383" t="inlineStr"/>
+      <c r="K383" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M383" t="n">
         <v>1</v>
       </c>
@@ -14955,8 +15985,14 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
-      <c r="L384" t="inlineStr"/>
+      <c r="K384" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M384" t="n">
         <v>1</v>
       </c>
@@ -14990,8 +16026,14 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
-      <c r="L385" t="inlineStr"/>
+      <c r="K385" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M385" t="n">
         <v>1</v>
       </c>
@@ -15025,8 +16067,14 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
-      <c r="L386" t="inlineStr"/>
+      <c r="K386" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M386" t="n">
         <v>1</v>
       </c>
@@ -15060,8 +16108,14 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
-      <c r="L387" t="inlineStr"/>
+      <c r="K387" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M387" t="n">
         <v>1</v>
       </c>
@@ -15095,8 +16149,14 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
-      <c r="L388" t="inlineStr"/>
+      <c r="K388" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M388" t="n">
         <v>1</v>
       </c>
@@ -15130,8 +16190,14 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
-      <c r="L389" t="inlineStr"/>
+      <c r="K389" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M389" t="n">
         <v>1</v>
       </c>
@@ -15165,8 +16231,14 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
-      <c r="L390" t="inlineStr"/>
+      <c r="K390" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M390" t="n">
         <v>1</v>
       </c>
@@ -15200,8 +16272,14 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
-      <c r="L391" t="inlineStr"/>
+      <c r="K391" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M391" t="n">
         <v>1</v>
       </c>
@@ -15235,8 +16313,14 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
-      <c r="L392" t="inlineStr"/>
+      <c r="K392" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M392" t="n">
         <v>1</v>
       </c>
@@ -15270,8 +16354,14 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
-      <c r="L393" t="inlineStr"/>
+      <c r="K393" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M393" t="n">
         <v>1</v>
       </c>
@@ -15305,8 +16395,14 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
-      <c r="L394" t="inlineStr"/>
+      <c r="K394" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M394" t="n">
         <v>1</v>
       </c>
@@ -15340,8 +16436,14 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
-      <c r="L395" t="inlineStr"/>
+      <c r="K395" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M395" t="n">
         <v>1</v>
       </c>
@@ -15375,8 +16477,14 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
-      <c r="L396" t="inlineStr"/>
+      <c r="K396" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M396" t="n">
         <v>1</v>
       </c>
@@ -15410,8 +16518,14 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
-      <c r="L397" t="inlineStr"/>
+      <c r="K397" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M397" t="n">
         <v>1</v>
       </c>
@@ -15445,8 +16559,14 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
-      <c r="L398" t="inlineStr"/>
+      <c r="K398" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M398" t="n">
         <v>1</v>
       </c>
@@ -15480,8 +16600,14 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
-      <c r="L399" t="inlineStr"/>
+      <c r="K399" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M399" t="n">
         <v>1</v>
       </c>
@@ -15515,8 +16641,14 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
-      <c r="L400" t="inlineStr"/>
+      <c r="K400" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M400" t="n">
         <v>1</v>
       </c>
@@ -15550,8 +16682,14 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
-      <c r="L401" t="inlineStr"/>
+      <c r="K401" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M401" t="n">
         <v>1</v>
       </c>
@@ -15585,8 +16723,14 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
-      <c r="L402" t="inlineStr"/>
+      <c r="K402" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M402" t="n">
         <v>1</v>
       </c>
@@ -15620,8 +16764,14 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
-      <c r="L403" t="inlineStr"/>
+      <c r="K403" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M403" t="n">
         <v>1</v>
       </c>
@@ -15655,8 +16805,14 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
-      <c r="L404" t="inlineStr"/>
+      <c r="K404" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M404" t="n">
         <v>1</v>
       </c>
@@ -15690,8 +16846,14 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
-      <c r="L405" t="inlineStr"/>
+      <c r="K405" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M405" t="n">
         <v>1</v>
       </c>
@@ -15725,8 +16887,14 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
-      <c r="L406" t="inlineStr"/>
+      <c r="K406" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M406" t="n">
         <v>1</v>
       </c>
@@ -15760,8 +16928,14 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
-      <c r="L407" t="inlineStr"/>
+      <c r="K407" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M407" t="n">
         <v>1</v>
       </c>
@@ -15795,8 +16969,14 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
-      <c r="L408" t="inlineStr"/>
+      <c r="K408" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M408" t="n">
         <v>1</v>
       </c>
@@ -15830,8 +17010,14 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
-      <c r="L409" t="inlineStr"/>
+      <c r="K409" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M409" t="n">
         <v>1</v>
       </c>
@@ -15865,8 +17051,14 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
-      <c r="L410" t="inlineStr"/>
+      <c r="K410" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M410" t="n">
         <v>1</v>
       </c>
@@ -15900,8 +17092,14 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
-      <c r="L411" t="inlineStr"/>
+      <c r="K411" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M411" t="n">
         <v>1</v>
       </c>
@@ -15935,8 +17133,14 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
-      <c r="L412" t="inlineStr"/>
+      <c r="K412" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M412" t="n">
         <v>1</v>
       </c>
@@ -15970,8 +17174,14 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
-      <c r="L413" t="inlineStr"/>
+      <c r="K413" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M413" t="n">
         <v>1</v>
       </c>
@@ -16005,8 +17215,14 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
-      <c r="L414" t="inlineStr"/>
+      <c r="K414" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M414" t="n">
         <v>1</v>
       </c>
@@ -16040,8 +17256,14 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
-      <c r="L415" t="inlineStr"/>
+      <c r="K415" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M415" t="n">
         <v>1</v>
       </c>
@@ -16075,8 +17297,14 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
-      <c r="L416" t="inlineStr"/>
+      <c r="K416" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M416" t="n">
         <v>1</v>
       </c>
@@ -16110,8 +17338,14 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
-      <c r="L417" t="inlineStr"/>
+      <c r="K417" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -16145,8 +17379,14 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
-      <c r="L418" t="inlineStr"/>
+      <c r="K418" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -16180,8 +17420,14 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
-      <c r="L419" t="inlineStr"/>
+      <c r="K419" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -16215,8 +17461,14 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
-      <c r="L420" t="inlineStr"/>
+      <c r="K420" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -16250,8 +17502,14 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
-      <c r="L421" t="inlineStr"/>
+      <c r="K421" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -16285,8 +17543,14 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
-      <c r="L422" t="inlineStr"/>
+      <c r="K422" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -16320,8 +17584,14 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
-      <c r="L423" t="inlineStr"/>
+      <c r="K423" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -16355,8 +17625,14 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
-      <c r="L424" t="inlineStr"/>
+      <c r="K424" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -16390,8 +17666,14 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
-      <c r="L425" t="inlineStr"/>
+      <c r="K425" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -16425,8 +17707,14 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
-      <c r="L426" t="inlineStr"/>
+      <c r="K426" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -16460,8 +17748,14 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
-      <c r="L427" t="inlineStr"/>
+      <c r="K427" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -16495,8 +17789,14 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
-      <c r="L428" t="inlineStr"/>
+      <c r="K428" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16530,8 +17830,14 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="inlineStr"/>
-      <c r="L429" t="inlineStr"/>
+      <c r="K429" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L429" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -16565,8 +17871,14 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="inlineStr"/>
-      <c r="L430" t="inlineStr"/>
+      <c r="K430" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L430" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -16600,8 +17912,14 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
-      <c r="L431" t="inlineStr"/>
+      <c r="K431" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -16635,8 +17953,14 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
-      <c r="L432" t="inlineStr"/>
+      <c r="K432" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -16670,8 +17994,14 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
-      <c r="L433" t="inlineStr"/>
+      <c r="K433" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -16705,8 +18035,14 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
-      <c r="L434" t="inlineStr"/>
+      <c r="K434" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -16740,8 +18076,14 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
-      <c r="L435" t="inlineStr"/>
+      <c r="K435" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -16775,8 +18117,14 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
-      <c r="L436" t="inlineStr"/>
+      <c r="K436" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -16810,8 +18158,14 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
-      <c r="L437" t="inlineStr"/>
+      <c r="K437" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16845,8 +18199,14 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
-      <c r="L438" t="inlineStr"/>
+      <c r="K438" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16880,8 +18240,14 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
-      <c r="L439" t="inlineStr"/>
+      <c r="K439" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16915,8 +18281,14 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
-      <c r="L440" t="inlineStr"/>
+      <c r="K440" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16950,8 +18322,14 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
-      <c r="L441" t="inlineStr"/>
+      <c r="K441" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16985,8 +18363,14 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
-      <c r="L442" t="inlineStr"/>
+      <c r="K442" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -17020,8 +18404,14 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
-      <c r="L443" t="inlineStr"/>
+      <c r="K443" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -17055,8 +18445,14 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
-      <c r="L444" t="inlineStr"/>
+      <c r="K444" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -17090,8 +18486,14 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
-      <c r="L445" t="inlineStr"/>
+      <c r="K445" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -17125,8 +18527,14 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
-      <c r="L446" t="inlineStr"/>
+      <c r="K446" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -17160,8 +18568,14 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
-      <c r="L447" t="inlineStr"/>
+      <c r="K447" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -17195,8 +18609,14 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
-      <c r="L448" t="inlineStr"/>
+      <c r="K448" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -17230,8 +18650,14 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
-      <c r="L449" t="inlineStr"/>
+      <c r="K449" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -17265,8 +18691,14 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
-      <c r="L450" t="inlineStr"/>
+      <c r="K450" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -17300,8 +18732,14 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
-      <c r="L451" t="inlineStr"/>
+      <c r="K451" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -17335,8 +18773,14 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
-      <c r="L452" t="inlineStr"/>
+      <c r="K452" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -17370,8 +18814,14 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
-      <c r="L453" t="inlineStr"/>
+      <c r="K453" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -17405,8 +18855,14 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
-      <c r="L454" t="inlineStr"/>
+      <c r="K454" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -17440,8 +18896,14 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
-      <c r="L455" t="inlineStr"/>
+      <c r="K455" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -17475,8 +18937,14 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
-      <c r="L456" t="inlineStr"/>
+      <c r="K456" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -17510,8 +18978,14 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
-      <c r="L457" t="inlineStr"/>
+      <c r="K457" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -17545,8 +19019,14 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
-      <c r="L458" t="inlineStr"/>
+      <c r="K458" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -17580,8 +19060,14 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
-      <c r="L459" t="inlineStr"/>
+      <c r="K459" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -17615,8 +19101,14 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
-      <c r="L460" t="inlineStr"/>
+      <c r="K460" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -17650,8 +19142,14 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
-      <c r="L461" t="inlineStr"/>
+      <c r="K461" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -17685,8 +19183,14 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
-      <c r="L462" t="inlineStr"/>
+      <c r="K462" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M462" t="n">
         <v>1</v>
       </c>
@@ -17720,8 +19224,14 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
-      <c r="L463" t="inlineStr"/>
+      <c r="K463" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M463" t="n">
         <v>1</v>
       </c>
@@ -17755,8 +19265,14 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
-      <c r="L464" t="inlineStr"/>
+      <c r="K464" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M464" t="n">
         <v>1</v>
       </c>
@@ -17790,8 +19306,14 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
-      <c r="L465" t="inlineStr"/>
+      <c r="K465" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M465" t="n">
         <v>1</v>
       </c>
@@ -17825,8 +19347,14 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
-      <c r="L466" t="inlineStr"/>
+      <c r="K466" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M466" t="n">
         <v>1</v>
       </c>
@@ -17860,8 +19388,14 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
-      <c r="L467" t="inlineStr"/>
+      <c r="K467" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M467" t="n">
         <v>1</v>
       </c>
@@ -17895,8 +19429,14 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
-      <c r="L468" t="inlineStr"/>
+      <c r="K468" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M468" t="n">
         <v>1</v>
       </c>
@@ -17930,8 +19470,14 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
-      <c r="L469" t="inlineStr"/>
+      <c r="K469" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M469" t="n">
         <v>1</v>
       </c>
@@ -17965,8 +19511,14 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
-      <c r="L470" t="inlineStr"/>
+      <c r="K470" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M470" t="n">
         <v>1</v>
       </c>
@@ -18000,8 +19552,14 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
-      <c r="L471" t="inlineStr"/>
+      <c r="K471" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M471" t="n">
         <v>1</v>
       </c>
@@ -18035,8 +19593,14 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
-      <c r="L472" t="inlineStr"/>
+      <c r="K472" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M472" t="n">
         <v>1</v>
       </c>
@@ -18070,8 +19634,14 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
-      <c r="L473" t="inlineStr"/>
+      <c r="K473" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M473" t="n">
         <v>1</v>
       </c>
@@ -18105,8 +19675,14 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
-      <c r="L474" t="inlineStr"/>
+      <c r="K474" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M474" t="n">
         <v>1</v>
       </c>
@@ -18140,8 +19716,14 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
-      <c r="L475" t="inlineStr"/>
+      <c r="K475" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M475" t="n">
         <v>1</v>
       </c>
@@ -18175,8 +19757,14 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
-      <c r="L476" t="inlineStr"/>
+      <c r="K476" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M476" t="n">
         <v>1</v>
       </c>
@@ -18210,8 +19798,14 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
-      <c r="L477" t="inlineStr"/>
+      <c r="K477" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M477" t="n">
         <v>1</v>
       </c>
@@ -18245,8 +19839,14 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
-      <c r="L478" t="inlineStr"/>
+      <c r="K478" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M478" t="n">
         <v>1</v>
       </c>
@@ -18280,8 +19880,14 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
-      <c r="L479" t="inlineStr"/>
+      <c r="K479" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M479" t="n">
         <v>1</v>
       </c>
@@ -18315,8 +19921,14 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
-      <c r="L480" t="inlineStr"/>
+      <c r="K480" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M480" t="n">
         <v>1</v>
       </c>
@@ -18350,8 +19962,14 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
-      <c r="L481" t="inlineStr"/>
+      <c r="K481" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M481" t="n">
         <v>1</v>
       </c>
@@ -18385,8 +20003,14 @@
         <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
-      <c r="L482" t="inlineStr"/>
+      <c r="K482" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M482" t="n">
         <v>1</v>
       </c>
@@ -18420,8 +20044,14 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
-      <c r="L483" t="inlineStr"/>
+      <c r="K483" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M483" t="n">
         <v>1</v>
       </c>
@@ -18455,8 +20085,14 @@
         <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
-      <c r="L484" t="inlineStr"/>
+      <c r="K484" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M484" t="n">
         <v>1</v>
       </c>
@@ -18490,8 +20126,14 @@
         <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
-      <c r="L485" t="inlineStr"/>
+      <c r="K485" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M485" t="n">
         <v>1</v>
       </c>
@@ -18525,8 +20167,14 @@
         <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
-      <c r="L486" t="inlineStr"/>
+      <c r="K486" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M486" t="n">
         <v>1</v>
       </c>
@@ -18560,8 +20208,14 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
-      <c r="L487" t="inlineStr"/>
+      <c r="K487" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M487" t="n">
         <v>1</v>
       </c>
@@ -18595,8 +20249,14 @@
         <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
-      <c r="L488" t="inlineStr"/>
+      <c r="K488" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M488" t="n">
         <v>1</v>
       </c>
@@ -18630,8 +20290,14 @@
         <v>0</v>
       </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
-      <c r="L489" t="inlineStr"/>
+      <c r="K489" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M489" t="n">
         <v>1</v>
       </c>
@@ -18665,8 +20331,14 @@
         <v>0</v>
       </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
-      <c r="L490" t="inlineStr"/>
+      <c r="K490" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M490" t="n">
         <v>1</v>
       </c>
@@ -18700,8 +20372,14 @@
         <v>0</v>
       </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
-      <c r="L491" t="inlineStr"/>
+      <c r="K491" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M491" t="n">
         <v>1</v>
       </c>
@@ -18735,8 +20413,14 @@
         <v>0</v>
       </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
-      <c r="L492" t="inlineStr"/>
+      <c r="K492" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M492" t="n">
         <v>1</v>
       </c>
@@ -18770,8 +20454,14 @@
         <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
-      <c r="L493" t="inlineStr"/>
+      <c r="K493" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M493" t="n">
         <v>1</v>
       </c>
@@ -18805,8 +20495,14 @@
         <v>0</v>
       </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
-      <c r="L494" t="inlineStr"/>
+      <c r="K494" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M494" t="n">
         <v>1</v>
       </c>
@@ -18840,8 +20536,14 @@
         <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
-      <c r="L495" t="inlineStr"/>
+      <c r="K495" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M495" t="n">
         <v>1</v>
       </c>
@@ -18875,8 +20577,14 @@
         <v>0</v>
       </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
-      <c r="L496" t="inlineStr"/>
+      <c r="K496" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M496" t="n">
         <v>1</v>
       </c>
@@ -18910,8 +20618,14 @@
         <v>0</v>
       </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
-      <c r="L497" t="inlineStr"/>
+      <c r="K497" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M497" t="n">
         <v>1</v>
       </c>
@@ -18945,8 +20659,14 @@
         <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
-      <c r="L498" t="inlineStr"/>
+      <c r="K498" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M498" t="n">
         <v>1</v>
       </c>
@@ -18980,8 +20700,14 @@
         <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
-      <c r="L499" t="inlineStr"/>
+      <c r="K499" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M499" t="n">
         <v>1</v>
       </c>
@@ -19015,8 +20741,14 @@
         <v>0</v>
       </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
-      <c r="L500" t="inlineStr"/>
+      <c r="K500" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M500" t="n">
         <v>1</v>
       </c>
@@ -19050,8 +20782,14 @@
         <v>0</v>
       </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
-      <c r="L501" t="inlineStr"/>
+      <c r="K501" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M501" t="n">
         <v>1</v>
       </c>
@@ -19085,8 +20823,14 @@
         <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
-      <c r="L502" t="inlineStr"/>
+      <c r="K502" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M502" t="n">
         <v>1</v>
       </c>
@@ -19120,8 +20864,14 @@
         <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
-      <c r="L503" t="inlineStr"/>
+      <c r="K503" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M503" t="n">
         <v>1</v>
       </c>
@@ -19155,8 +20905,14 @@
         <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
-      <c r="L504" t="inlineStr"/>
+      <c r="K504" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M504" t="n">
         <v>1</v>
       </c>
@@ -19190,8 +20946,14 @@
         <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
-      <c r="L505" t="inlineStr"/>
+      <c r="K505" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M505" t="n">
         <v>1</v>
       </c>
@@ -19225,8 +20987,14 @@
         <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
-      <c r="L506" t="inlineStr"/>
+      <c r="K506" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M506" t="n">
         <v>1</v>
       </c>
@@ -19260,8 +21028,14 @@
         <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
-      <c r="L507" t="inlineStr"/>
+      <c r="K507" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M507" t="n">
         <v>1</v>
       </c>
@@ -19295,8 +21069,14 @@
         <v>0</v>
       </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
-      <c r="L508" t="inlineStr"/>
+      <c r="K508" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M508" t="n">
         <v>1</v>
       </c>
@@ -19330,8 +21110,14 @@
         <v>0</v>
       </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
-      <c r="L509" t="inlineStr"/>
+      <c r="K509" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M509" t="n">
         <v>1</v>
       </c>
@@ -19365,8 +21151,14 @@
         <v>0</v>
       </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
-      <c r="L510" t="inlineStr"/>
+      <c r="K510" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M510" t="n">
         <v>1</v>
       </c>
@@ -19400,8 +21192,14 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
-      <c r="L511" t="inlineStr"/>
+      <c r="K511" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M511" t="n">
         <v>1</v>
       </c>
@@ -19435,8 +21233,14 @@
         <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
-      <c r="L512" t="inlineStr"/>
+      <c r="K512" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M512" t="n">
         <v>1</v>
       </c>
@@ -19470,8 +21274,14 @@
         <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
-      <c r="L513" t="inlineStr"/>
+      <c r="K513" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M513" t="n">
         <v>1</v>
       </c>
@@ -19505,8 +21315,14 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
-      <c r="L514" t="inlineStr"/>
+      <c r="K514" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M514" t="n">
         <v>1</v>
       </c>
@@ -19540,8 +21356,14 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
-      <c r="L515" t="inlineStr"/>
+      <c r="K515" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M515" t="n">
         <v>1</v>
       </c>
@@ -19575,8 +21397,14 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
-      <c r="L516" t="inlineStr"/>
+      <c r="K516" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M516" t="n">
         <v>1</v>
       </c>
@@ -19610,8 +21438,14 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
-      <c r="L517" t="inlineStr"/>
+      <c r="K517" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M517" t="n">
         <v>1</v>
       </c>
@@ -19645,8 +21479,14 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
-      <c r="L518" t="inlineStr"/>
+      <c r="K518" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M518" t="n">
         <v>1</v>
       </c>
@@ -19680,8 +21520,14 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
-      <c r="L519" t="inlineStr"/>
+      <c r="K519" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M519" t="n">
         <v>1</v>
       </c>
@@ -19715,8 +21561,14 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
-      <c r="L520" t="inlineStr"/>
+      <c r="K520" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M520" t="n">
         <v>1</v>
       </c>
@@ -19750,8 +21602,14 @@
         <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
-      <c r="L521" t="inlineStr"/>
+      <c r="K521" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M521" t="n">
         <v>1</v>
       </c>
@@ -19785,8 +21643,14 @@
         <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
-      <c r="L522" t="inlineStr"/>
+      <c r="K522" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M522" t="n">
         <v>1</v>
       </c>
@@ -19820,8 +21684,14 @@
         <v>0</v>
       </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
-      <c r="L523" t="inlineStr"/>
+      <c r="K523" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M523" t="n">
         <v>1</v>
       </c>
@@ -19855,8 +21725,14 @@
         <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
-      <c r="L524" t="inlineStr"/>
+      <c r="K524" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M524" t="n">
         <v>1</v>
       </c>
@@ -19890,8 +21766,14 @@
         <v>0</v>
       </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
-      <c r="L525" t="inlineStr"/>
+      <c r="K525" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M525" t="n">
         <v>1</v>
       </c>
@@ -19925,8 +21807,14 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
-      <c r="L526" t="inlineStr"/>
+      <c r="K526" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M526" t="n">
         <v>1</v>
       </c>
@@ -19960,8 +21848,14 @@
         <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
-      <c r="L527" t="inlineStr"/>
+      <c r="K527" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M527" t="n">
         <v>1</v>
       </c>
@@ -19995,8 +21889,14 @@
         <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
-      <c r="L528" t="inlineStr"/>
+      <c r="K528" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M528" t="n">
         <v>1</v>
       </c>
@@ -20030,8 +21930,14 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
-      <c r="L529" t="inlineStr"/>
+      <c r="K529" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M529" t="n">
         <v>1</v>
       </c>
@@ -20065,8 +21971,14 @@
         <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
-      <c r="L530" t="inlineStr"/>
+      <c r="K530" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M530" t="n">
         <v>1</v>
       </c>
@@ -20100,8 +22012,14 @@
         <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
-      <c r="L531" t="inlineStr"/>
+      <c r="K531" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M531" t="n">
         <v>1</v>
       </c>
@@ -20135,8 +22053,14 @@
         <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
-      <c r="L532" t="inlineStr"/>
+      <c r="K532" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M532" t="n">
         <v>1</v>
       </c>
@@ -20170,8 +22094,14 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
-      <c r="L533" t="inlineStr"/>
+      <c r="K533" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M533" t="n">
         <v>1</v>
       </c>
@@ -20205,8 +22135,14 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
-      <c r="L534" t="inlineStr"/>
+      <c r="K534" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M534" t="n">
         <v>1</v>
       </c>
@@ -20240,8 +22176,14 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
-      <c r="L535" t="inlineStr"/>
+      <c r="K535" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M535" t="n">
         <v>1</v>
       </c>
@@ -20275,8 +22217,14 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
-      <c r="L536" t="inlineStr"/>
+      <c r="K536" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M536" t="n">
         <v>1</v>
       </c>
@@ -20307,13 +22255,19 @@
         <v>0</v>
       </c>
       <c r="I537" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
-      <c r="L537" t="inlineStr"/>
+      <c r="K537" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L537" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M537" t="n">
-        <v>1</v>
+        <v>1.147671755725191</v>
       </c>
     </row>
     <row r="538">
@@ -20342,7 +22296,7 @@
         <v>0</v>
       </c>
       <c r="I538" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J538" t="inlineStr"/>
       <c r="K538" t="inlineStr"/>

--- a/BackTest/2019-10-26 BackTest FNB.xlsx
+++ b/BackTest/2019-10-26 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -6655,7 +6655,7 @@
         <v>86081.88009465398</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>86081.88009465398</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>86110.64819465399</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>86110.64819465399</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>2426.686794653986</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>199860.962094654</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>144487.878194654</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>32227.73119465398</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-14927.79380534602</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-12852.88500534602</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>337332.4092910569</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>425529.8544910569</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>425529.8544910569</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>684387.969902651</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>672583.0238026511</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>871335.1307026511</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>871335.1307026511</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>1074381.342802651</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>1074381.342802651</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>1074491.342802651</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>830766.5582026512</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>830766.5582026512</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>830766.5582026512</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>830766.5582026512</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>830766.5582026512</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>830776.5582026512</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>830776.5582026512</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>830816.2010026512</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>830816.2010026512</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>830816.2010026512</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>830826.2010026512</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>830826.2010026512</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>767746.8783026512</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>862970.1617026512</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>827466.2269026511</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>827466.2269026511</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-772268.8638973488</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-772258.8638973488</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-844722.6320937516</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-844712.6320937516</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-844712.6320937516</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-844712.6320937516</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-844712.6320937516</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-1011669.817193752</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-1834026.611693754</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-2020644.065893754</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-2164057.163093754</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-2164057.163093754</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-2164057.163093754</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-2164057.163093754</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-1815884.395193754</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-1815884.395193754</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-1815884.395193754</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-1795384.395193754</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-1795384.395193754</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-1271768.370193754</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-968269.1707937543</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-1226110.931574873</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-1966456.293074873</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-1634466.502874873</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-2247296.251274874</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-1713547.903606342</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-1938507.751597251</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-1938507.751597251</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-1938507.751597251</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-1735213.562497251</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-1735213.562497251</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-1735213.562497251</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-2030224.630497251</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-2265412.453597251</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-2265401.453597251</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-2265401.453597251</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>-2265401.453597251</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-2265401.453597251</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-2265401.453597251</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-2265401.453597251</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-2378659.628397251</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-2378659.628397251</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-2378659.628397251</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-2378659.628397251</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-2378659.628397251</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-3119715.059597251</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-3119715.059597251</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-3119736.059597251</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-3119736.059597251</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-3119736.059597251</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-3119736.059597251</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-3039480.886097251</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-3579523.293997251</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-3579468.849997251</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-3579468.849997251</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-3579468.849997251</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-3579468.849997251</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-4949439.018597251</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-5418229.223697251</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-5418229.223697251</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -14542,14 +14542,10 @@
         <v>-11057699.46139725</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
-      </c>
-      <c r="I429" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J429" t="n">
-        <v>13.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I429" t="inlineStr"/>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
@@ -14579,833 +14575,693 @@
         <v>-11007302.58999725</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
+      <c r="L430" t="n">
+        <v>1</v>
+      </c>
+      <c r="M430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C431" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D431" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E431" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F431" t="n">
+        <v>52991.2323</v>
+      </c>
+      <c r="G431" t="n">
+        <v>-11060293.82229725</v>
+      </c>
+      <c r="H431" t="n">
+        <v>0</v>
+      </c>
+      <c r="I431" t="inlineStr"/>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
+      <c r="L431" t="n">
+        <v>1</v>
+      </c>
+      <c r="M431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C432" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D432" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E432" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F432" t="n">
+        <v>108405.553</v>
+      </c>
+      <c r="G432" t="n">
+        <v>-10951888.26929725</v>
+      </c>
+      <c r="H432" t="n">
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
+      <c r="L432" t="n">
+        <v>1</v>
+      </c>
+      <c r="M432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C433" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D433" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E433" t="n">
         <v>13.6</v>
       </c>
-      <c r="J430" t="n">
+      <c r="F433" t="n">
+        <v>157991.6919</v>
+      </c>
+      <c r="G433" t="n">
+        <v>-10951888.26929725</v>
+      </c>
+      <c r="H433" t="n">
+        <v>0</v>
+      </c>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
+      <c r="L433" t="n">
+        <v>1</v>
+      </c>
+      <c r="M433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C434" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D434" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E434" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F434" t="n">
+        <v>40754.8322</v>
+      </c>
+      <c r="G434" t="n">
+        <v>-10992643.10149725</v>
+      </c>
+      <c r="H434" t="n">
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
+      <c r="L434" t="n">
+        <v>1</v>
+      </c>
+      <c r="M434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C435" t="n">
         <v>13.6</v>
       </c>
-      <c r="K430" t="inlineStr">
+      <c r="D435" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E435" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="F435" t="n">
+        <v>276046.0876</v>
+      </c>
+      <c r="G435" t="n">
+        <v>-11268689.18909725</v>
+      </c>
+      <c r="H435" t="n">
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
+      <c r="L435" t="n">
+        <v>1</v>
+      </c>
+      <c r="M435" t="inlineStr"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C436" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D436" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E436" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F436" t="n">
+        <v>7351.7517</v>
+      </c>
+      <c r="G436" t="n">
+        <v>-11261337.43739725</v>
+      </c>
+      <c r="H436" t="n">
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
+      <c r="L436" t="n">
+        <v>1</v>
+      </c>
+      <c r="M436" t="inlineStr"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C437" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D437" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E437" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F437" t="n">
+        <v>65929.8319</v>
+      </c>
+      <c r="G437" t="n">
+        <v>-11261337.43739725</v>
+      </c>
+      <c r="H437" t="n">
+        <v>0</v>
+      </c>
+      <c r="I437" t="inlineStr"/>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
+      <c r="L437" t="n">
+        <v>1</v>
+      </c>
+      <c r="M437" t="inlineStr"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C438" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D438" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E438" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F438" t="n">
+        <v>450105.5405</v>
+      </c>
+      <c r="G438" t="n">
+        <v>-10811231.89689725</v>
+      </c>
+      <c r="H438" t="n">
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
+      <c r="L438" t="n">
+        <v>1</v>
+      </c>
+      <c r="M438" t="inlineStr"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C439" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D439" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E439" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F439" t="n">
+        <v>90902.2392</v>
+      </c>
+      <c r="G439" t="n">
+        <v>-10902134.13609725</v>
+      </c>
+      <c r="H439" t="n">
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
+      <c r="L439" t="n">
+        <v>1</v>
+      </c>
+      <c r="M439" t="inlineStr"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C440" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D440" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E440" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F440" t="n">
+        <v>277485.0141</v>
+      </c>
+      <c r="G440" t="n">
+        <v>-10624649.12199725</v>
+      </c>
+      <c r="H440" t="n">
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
+      <c r="L440" t="n">
+        <v>1</v>
+      </c>
+      <c r="M440" t="inlineStr"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="C441" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="D441" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="E441" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="F441" t="n">
+        <v>65540.7913</v>
+      </c>
+      <c r="G441" t="n">
+        <v>-10559108.33069725</v>
+      </c>
+      <c r="H441" t="n">
+        <v>1</v>
+      </c>
+      <c r="I441" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="J441" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="K441" t="inlineStr"/>
+      <c r="L441" t="n">
+        <v>1</v>
+      </c>
+      <c r="M441" t="inlineStr"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="C442" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="D442" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="E442" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="F442" t="n">
+        <v>295941.0071</v>
+      </c>
+      <c r="G442" t="n">
+        <v>-10559108.33069725</v>
+      </c>
+      <c r="H442" t="n">
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L442" t="n">
+        <v>1</v>
+      </c>
+      <c r="M442" t="inlineStr"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="C443" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="D443" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="E443" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="F443" t="n">
+        <v>108518.0497</v>
+      </c>
+      <c r="G443" t="n">
+        <v>-10559108.33069725</v>
+      </c>
+      <c r="H443" t="n">
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L443" t="n">
+        <v>1</v>
+      </c>
+      <c r="M443" t="inlineStr"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="n">
+        <v>14</v>
+      </c>
+      <c r="C444" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D444" t="n">
+        <v>14</v>
+      </c>
+      <c r="E444" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F444" t="n">
+        <v>407984.8215</v>
+      </c>
+      <c r="G444" t="n">
+        <v>-10967093.15219725</v>
+      </c>
+      <c r="H444" t="n">
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
+      <c r="L444" t="n">
+        <v>1</v>
+      </c>
+      <c r="M444" t="inlineStr"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C445" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D445" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E445" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F445" t="n">
+        <v>150752.5114</v>
+      </c>
+      <c r="G445" t="n">
+        <v>-10967093.15219725</v>
+      </c>
+      <c r="H445" t="n">
+        <v>0</v>
+      </c>
+      <c r="I445" t="inlineStr"/>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
+      <c r="L445" t="n">
+        <v>1</v>
+      </c>
+      <c r="M445" t="inlineStr"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C446" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D446" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E446" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F446" t="n">
+        <v>107657.2463</v>
+      </c>
+      <c r="G446" t="n">
+        <v>-10967093.15219725</v>
+      </c>
+      <c r="H446" t="n">
+        <v>0</v>
+      </c>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
+      <c r="L446" t="n">
+        <v>1</v>
+      </c>
+      <c r="M446" t="inlineStr"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C447" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D447" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E447" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F447" t="n">
+        <v>610285.7238</v>
+      </c>
+      <c r="G447" t="n">
+        <v>-11577378.87599725</v>
+      </c>
+      <c r="H447" t="n">
+        <v>0</v>
+      </c>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
+      <c r="L447" t="n">
+        <v>1</v>
+      </c>
+      <c r="M447" t="inlineStr"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C448" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D448" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E448" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F448" t="n">
+        <v>259615.2632</v>
+      </c>
+      <c r="G448" t="n">
+        <v>-11577378.87599725</v>
+      </c>
+      <c r="H448" t="n">
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
+      <c r="L448" t="n">
+        <v>1</v>
+      </c>
+      <c r="M448" t="inlineStr"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C449" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D449" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E449" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F449" t="n">
+        <v>43695.1625</v>
+      </c>
+      <c r="G449" t="n">
+        <v>-11577378.87599725</v>
+      </c>
+      <c r="H449" t="n">
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
+      <c r="L449" t="n">
+        <v>1</v>
+      </c>
+      <c r="M449" t="inlineStr"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C450" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D450" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E450" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F450" t="n">
+        <v>516676.6322</v>
+      </c>
+      <c r="G450" t="n">
+        <v>-11060702.24379725</v>
+      </c>
+      <c r="H450" t="n">
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L430" t="n">
-        <v>1</v>
-      </c>
-      <c r="M430" t="inlineStr"/>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
-        <v>429</v>
-      </c>
-      <c r="B431" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="C431" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="D431" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="E431" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F431" t="n">
-        <v>52991.2323</v>
-      </c>
-      <c r="G431" t="n">
-        <v>-11060293.82229725</v>
-      </c>
-      <c r="H431" t="n">
-        <v>1</v>
-      </c>
-      <c r="I431" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="J431" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L431" t="n">
-        <v>1</v>
-      </c>
-      <c r="M431" t="inlineStr"/>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
-        <v>430</v>
-      </c>
-      <c r="B432" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="C432" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="D432" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="E432" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F432" t="n">
-        <v>108405.553</v>
-      </c>
-      <c r="G432" t="n">
-        <v>-10951888.26929725</v>
-      </c>
-      <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L432" t="n">
-        <v>1</v>
-      </c>
-      <c r="M432" t="inlineStr"/>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
-        <v>431</v>
-      </c>
-      <c r="B433" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="C433" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="D433" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="E433" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="F433" t="n">
-        <v>157991.6919</v>
-      </c>
-      <c r="G433" t="n">
-        <v>-10951888.26929725</v>
-      </c>
-      <c r="H433" t="n">
-        <v>1</v>
-      </c>
-      <c r="I433" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="J433" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L433" t="n">
-        <v>1</v>
-      </c>
-      <c r="M433" t="inlineStr"/>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
-        <v>432</v>
-      </c>
-      <c r="B434" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="C434" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="D434" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="E434" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F434" t="n">
-        <v>40754.8322</v>
-      </c>
-      <c r="G434" t="n">
-        <v>-10992643.10149725</v>
-      </c>
-      <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="J434" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L434" t="n">
-        <v>1</v>
-      </c>
-      <c r="M434" t="inlineStr"/>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
-        <v>433</v>
-      </c>
-      <c r="B435" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="C435" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="D435" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="E435" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="F435" t="n">
-        <v>276046.0876</v>
-      </c>
-      <c r="G435" t="n">
-        <v>-11268689.18909725</v>
-      </c>
-      <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="J435" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L435" t="n">
-        <v>1</v>
-      </c>
-      <c r="M435" t="inlineStr"/>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
-        <v>434</v>
-      </c>
-      <c r="B436" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="C436" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="D436" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="E436" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F436" t="n">
-        <v>7351.7517</v>
-      </c>
-      <c r="G436" t="n">
-        <v>-11261337.43739725</v>
-      </c>
-      <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J436" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L436" t="n">
-        <v>1</v>
-      </c>
-      <c r="M436" t="inlineStr"/>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
-        <v>435</v>
-      </c>
-      <c r="B437" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="C437" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="D437" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="E437" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F437" t="n">
-        <v>65929.8319</v>
-      </c>
-      <c r="G437" t="n">
-        <v>-11261337.43739725</v>
-      </c>
-      <c r="H437" t="n">
-        <v>1</v>
-      </c>
-      <c r="I437" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="J437" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L437" t="n">
-        <v>1</v>
-      </c>
-      <c r="M437" t="inlineStr"/>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
-        <v>436</v>
-      </c>
-      <c r="B438" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="C438" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="D438" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="E438" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F438" t="n">
-        <v>450105.5405</v>
-      </c>
-      <c r="G438" t="n">
-        <v>-10811231.89689725</v>
-      </c>
-      <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="J438" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L438" t="n">
-        <v>1</v>
-      </c>
-      <c r="M438" t="inlineStr"/>
-    </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
-        <v>437</v>
-      </c>
-      <c r="B439" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="C439" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="D439" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="E439" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F439" t="n">
-        <v>90902.2392</v>
-      </c>
-      <c r="G439" t="n">
-        <v>-10902134.13609725</v>
-      </c>
-      <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="J439" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L439" t="n">
-        <v>1</v>
-      </c>
-      <c r="M439" t="inlineStr"/>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
-        <v>438</v>
-      </c>
-      <c r="B440" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="C440" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="D440" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="E440" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="F440" t="n">
-        <v>277485.0141</v>
-      </c>
-      <c r="G440" t="n">
-        <v>-10624649.12199725</v>
-      </c>
-      <c r="H440" t="n">
-        <v>1</v>
-      </c>
-      <c r="I440" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="J440" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L440" t="n">
-        <v>1</v>
-      </c>
-      <c r="M440" t="inlineStr"/>
-    </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
-        <v>439</v>
-      </c>
-      <c r="B441" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="C441" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="D441" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="E441" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="F441" t="n">
-        <v>65540.7913</v>
-      </c>
-      <c r="G441" t="n">
-        <v>-10559108.33069725</v>
-      </c>
-      <c r="H441" t="n">
-        <v>1</v>
-      </c>
-      <c r="I441" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="J441" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L441" t="n">
-        <v>1</v>
-      </c>
-      <c r="M441" t="inlineStr"/>
-    </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
-        <v>440</v>
-      </c>
-      <c r="B442" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="C442" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="D442" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="E442" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="F442" t="n">
-        <v>295941.0071</v>
-      </c>
-      <c r="G442" t="n">
-        <v>-10559108.33069725</v>
-      </c>
-      <c r="H442" t="n">
-        <v>1</v>
-      </c>
-      <c r="I442" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J442" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L442" t="n">
-        <v>1</v>
-      </c>
-      <c r="M442" t="inlineStr"/>
-    </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
-        <v>441</v>
-      </c>
-      <c r="B443" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="C443" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="D443" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="E443" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="F443" t="n">
-        <v>108518.0497</v>
-      </c>
-      <c r="G443" t="n">
-        <v>-10559108.33069725</v>
-      </c>
-      <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L443" t="n">
-        <v>1</v>
-      </c>
-      <c r="M443" t="inlineStr"/>
-    </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
-        <v>442</v>
-      </c>
-      <c r="B444" t="n">
-        <v>14</v>
-      </c>
-      <c r="C444" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="D444" t="n">
-        <v>14</v>
-      </c>
-      <c r="E444" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="F444" t="n">
-        <v>407984.8215</v>
-      </c>
-      <c r="G444" t="n">
-        <v>-10967093.15219725</v>
-      </c>
-      <c r="H444" t="n">
-        <v>0</v>
-      </c>
-      <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L444" t="n">
-        <v>1</v>
-      </c>
-      <c r="M444" t="inlineStr"/>
-    </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
-        <v>443</v>
-      </c>
-      <c r="B445" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="C445" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="D445" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="E445" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F445" t="n">
-        <v>150752.5114</v>
-      </c>
-      <c r="G445" t="n">
-        <v>-10967093.15219725</v>
-      </c>
-      <c r="H445" t="n">
-        <v>1</v>
-      </c>
-      <c r="I445" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="J445" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L445" t="n">
-        <v>1</v>
-      </c>
-      <c r="M445" t="inlineStr"/>
-    </row>
-    <row r="446">
-      <c r="A446" s="1" t="n">
-        <v>444</v>
-      </c>
-      <c r="B446" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="C446" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="D446" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="E446" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="F446" t="n">
-        <v>107657.2463</v>
-      </c>
-      <c r="G446" t="n">
-        <v>-10967093.15219725</v>
-      </c>
-      <c r="H446" t="n">
-        <v>1</v>
-      </c>
-      <c r="I446" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="J446" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L446" t="n">
-        <v>1</v>
-      </c>
-      <c r="M446" t="inlineStr"/>
-    </row>
-    <row r="447">
-      <c r="A447" s="1" t="n">
-        <v>445</v>
-      </c>
-      <c r="B447" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="C447" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="D447" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="E447" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F447" t="n">
-        <v>610285.7238</v>
-      </c>
-      <c r="G447" t="n">
-        <v>-11577378.87599725</v>
-      </c>
-      <c r="H447" t="n">
-        <v>1</v>
-      </c>
-      <c r="I447" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="J447" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L447" t="n">
-        <v>1</v>
-      </c>
-      <c r="M447" t="inlineStr"/>
-    </row>
-    <row r="448">
-      <c r="A448" s="1" t="n">
-        <v>446</v>
-      </c>
-      <c r="B448" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="C448" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="D448" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="E448" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F448" t="n">
-        <v>259615.2632</v>
-      </c>
-      <c r="G448" t="n">
-        <v>-11577378.87599725</v>
-      </c>
-      <c r="H448" t="n">
-        <v>1</v>
-      </c>
-      <c r="I448" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="J448" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L448" t="n">
-        <v>1</v>
-      </c>
-      <c r="M448" t="inlineStr"/>
-    </row>
-    <row r="449">
-      <c r="A449" s="1" t="n">
-        <v>447</v>
-      </c>
-      <c r="B449" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="C449" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="D449" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="E449" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F449" t="n">
-        <v>43695.1625</v>
-      </c>
-      <c r="G449" t="n">
-        <v>-11577378.87599725</v>
-      </c>
-      <c r="H449" t="n">
-        <v>1</v>
-      </c>
-      <c r="I449" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="J449" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L449" t="n">
-        <v>1</v>
-      </c>
-      <c r="M449" t="inlineStr"/>
-    </row>
-    <row r="450">
-      <c r="A450" s="1" t="n">
-        <v>448</v>
-      </c>
-      <c r="B450" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="C450" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="D450" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="E450" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F450" t="n">
-        <v>516676.6322</v>
-      </c>
-      <c r="G450" t="n">
-        <v>-11060702.24379725</v>
-      </c>
-      <c r="H450" t="n">
-        <v>1</v>
-      </c>
-      <c r="I450" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="J450" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15434,14 +15290,10 @@
         <v>-11060702.24379725</v>
       </c>
       <c r="H451" t="n">
-        <v>1</v>
-      </c>
-      <c r="I451" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="J451" t="n">
-        <v>13.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15480,9 +15332,7 @@
       <c r="I452" t="n">
         <v>13.8</v>
       </c>
-      <c r="J452" t="n">
-        <v>13.6</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15521,9 +15371,7 @@
       <c r="I453" t="n">
         <v>13.7</v>
       </c>
-      <c r="J453" t="n">
-        <v>13.6</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15562,9 +15410,7 @@
       <c r="I454" t="n">
         <v>13.7</v>
       </c>
-      <c r="J454" t="n">
-        <v>13.6</v>
-      </c>
+      <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15603,9 +15449,7 @@
       <c r="I455" t="n">
         <v>13.8</v>
       </c>
-      <c r="J455" t="n">
-        <v>13.6</v>
-      </c>
+      <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15644,9 +15488,7 @@
       <c r="I456" t="n">
         <v>13.9</v>
       </c>
-      <c r="J456" t="n">
-        <v>13.6</v>
-      </c>
+      <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15685,9 +15527,7 @@
       <c r="I457" t="n">
         <v>13.9</v>
       </c>
-      <c r="J457" t="n">
-        <v>13.6</v>
-      </c>
+      <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15726,9 +15566,7 @@
       <c r="I458" t="n">
         <v>13.9</v>
       </c>
-      <c r="J458" t="n">
-        <v>13.6</v>
-      </c>
+      <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15767,9 +15605,7 @@
       <c r="I459" t="n">
         <v>13.8</v>
       </c>
-      <c r="J459" t="n">
-        <v>13.6</v>
-      </c>
+      <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15808,9 +15644,7 @@
       <c r="I460" t="n">
         <v>13.9</v>
       </c>
-      <c r="J460" t="n">
-        <v>13.6</v>
-      </c>
+      <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15849,9 +15683,7 @@
       <c r="I461" t="n">
         <v>13.8</v>
       </c>
-      <c r="J461" t="n">
-        <v>13.6</v>
-      </c>
+      <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15890,9 +15722,7 @@
       <c r="I462" t="n">
         <v>13.9</v>
       </c>
-      <c r="J462" t="n">
-        <v>13.6</v>
-      </c>
+      <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15931,9 +15761,7 @@
       <c r="I463" t="n">
         <v>13.9</v>
       </c>
-      <c r="J463" t="n">
-        <v>13.6</v>
-      </c>
+      <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15972,9 +15800,7 @@
       <c r="I464" t="n">
         <v>13.9</v>
       </c>
-      <c r="J464" t="n">
-        <v>13.6</v>
-      </c>
+      <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16013,9 +15839,7 @@
       <c r="I465" t="n">
         <v>13.9</v>
       </c>
-      <c r="J465" t="n">
-        <v>13.6</v>
-      </c>
+      <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16054,9 +15878,7 @@
       <c r="I466" t="n">
         <v>14</v>
       </c>
-      <c r="J466" t="n">
-        <v>13.6</v>
-      </c>
+      <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16090,20 +15912,16 @@
         <v>-9483078.656746546</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>13.6</v>
-      </c>
+      <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L467" t="n">
-        <v>1</v>
-      </c>
+      <c r="L467" t="inlineStr"/>
       <c r="M467" t="inlineStr"/>
     </row>
     <row r="468">
@@ -16129,17 +15947,11 @@
         <v>-9483078.656746546</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16168,17 +15980,11 @@
         <v>-9572017.390646545</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16207,19 +16013,11 @@
         <v>-9572017.390646545</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
-      </c>
-      <c r="I470" t="n">
-        <v>14</v>
-      </c>
-      <c r="J470" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16248,19 +16046,11 @@
         <v>-10525107.66484655</v>
       </c>
       <c r="H471" t="n">
-        <v>1</v>
-      </c>
-      <c r="I471" t="n">
-        <v>14</v>
-      </c>
-      <c r="J471" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16289,19 +16079,11 @@
         <v>-10414899.88334654</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
-      </c>
-      <c r="I472" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J472" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16330,19 +16112,11 @@
         <v>-10414899.88334654</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
-      </c>
-      <c r="I473" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J473" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16371,19 +16145,11 @@
         <v>-10423184.42794655</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J474" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16412,19 +16178,11 @@
         <v>-10423184.42794655</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
-      </c>
-      <c r="I475" t="n">
-        <v>14</v>
-      </c>
-      <c r="J475" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16453,19 +16211,11 @@
         <v>-9449746.118433259</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
-      </c>
-      <c r="I476" t="n">
-        <v>14</v>
-      </c>
-      <c r="J476" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16494,19 +16244,11 @@
         <v>-9483380.13243326</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="J477" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16535,19 +16277,11 @@
         <v>-9519672.87243326</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J478" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16576,19 +16310,11 @@
         <v>-9519672.87243326</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
-      </c>
-      <c r="I479" t="n">
-        <v>14</v>
-      </c>
-      <c r="J479" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16617,19 +16343,11 @@
         <v>-9327011.76703326</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>14</v>
-      </c>
-      <c r="J480" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16658,19 +16376,11 @@
         <v>-9326678.76703326</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
-      </c>
-      <c r="I481" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J481" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I481" t="inlineStr"/>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16699,19 +16409,11 @@
         <v>-9326678.76703326</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
-      </c>
-      <c r="I482" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J482" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I482" t="inlineStr"/>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16740,19 +16442,11 @@
         <v>-9326678.76703326</v>
       </c>
       <c r="H483" t="n">
-        <v>1</v>
-      </c>
-      <c r="I483" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J483" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I483" t="inlineStr"/>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16781,19 +16475,11 @@
         <v>-9326678.76703326</v>
       </c>
       <c r="H484" t="n">
-        <v>1</v>
-      </c>
-      <c r="I484" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J484" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I484" t="inlineStr"/>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16822,19 +16508,11 @@
         <v>-9326678.76703326</v>
       </c>
       <c r="H485" t="n">
-        <v>1</v>
-      </c>
-      <c r="I485" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J485" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I485" t="inlineStr"/>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16863,19 +16541,11 @@
         <v>-9326678.76703326</v>
       </c>
       <c r="H486" t="n">
-        <v>1</v>
-      </c>
-      <c r="I486" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J486" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I486" t="inlineStr"/>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16904,19 +16574,11 @@
         <v>-9754781.14413326</v>
       </c>
       <c r="H487" t="n">
-        <v>1</v>
-      </c>
-      <c r="I487" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J487" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I487" t="inlineStr"/>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16945,19 +16607,11 @@
         <v>-10971483.35923326</v>
       </c>
       <c r="H488" t="n">
-        <v>1</v>
-      </c>
-      <c r="I488" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J488" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I488" t="inlineStr"/>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16986,19 +16640,11 @@
         <v>-10971483.35923326</v>
       </c>
       <c r="H489" t="n">
-        <v>1</v>
-      </c>
-      <c r="I489" t="n">
-        <v>14</v>
-      </c>
-      <c r="J489" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I489" t="inlineStr"/>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17027,19 +16673,11 @@
         <v>-10971483.35923326</v>
       </c>
       <c r="H490" t="n">
-        <v>1</v>
-      </c>
-      <c r="I490" t="n">
-        <v>14</v>
-      </c>
-      <c r="J490" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I490" t="inlineStr"/>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17068,19 +16706,11 @@
         <v>-10971483.35923326</v>
       </c>
       <c r="H491" t="n">
-        <v>1</v>
-      </c>
-      <c r="I491" t="n">
-        <v>14</v>
-      </c>
-      <c r="J491" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I491" t="inlineStr"/>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17109,19 +16739,11 @@
         <v>-10971483.35923326</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
-      </c>
-      <c r="I492" t="n">
-        <v>14</v>
-      </c>
-      <c r="J492" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17150,19 +16772,11 @@
         <v>-10971483.35923326</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
-      </c>
-      <c r="I493" t="n">
-        <v>14</v>
-      </c>
-      <c r="J493" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17191,19 +16805,11 @@
         <v>-10971483.35923326</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
-      </c>
-      <c r="I494" t="n">
-        <v>14</v>
-      </c>
-      <c r="J494" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17232,19 +16838,11 @@
         <v>-10437042.16403326</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
-      </c>
-      <c r="I495" t="n">
-        <v>14</v>
-      </c>
-      <c r="J495" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17273,19 +16871,11 @@
         <v>-9472662.33313326</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
-      </c>
-      <c r="I496" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J496" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17314,19 +16904,11 @@
         <v>-9663537.39333326</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
-      </c>
-      <c r="I497" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J497" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17355,19 +16937,11 @@
         <v>-9663537.39333326</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
-      </c>
-      <c r="I498" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J498" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17396,19 +16970,11 @@
         <v>-9663537.39333326</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
-      </c>
-      <c r="I499" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J499" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I499" t="inlineStr"/>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17437,19 +17003,11 @@
         <v>-9663537.39333326</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
-      </c>
-      <c r="I500" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J500" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17478,19 +17036,11 @@
         <v>-9663537.39333326</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
-      </c>
-      <c r="I501" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J501" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17519,19 +17069,11 @@
         <v>-9663537.39333326</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
-      </c>
-      <c r="I502" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J502" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I502" t="inlineStr"/>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17560,19 +17102,11 @@
         <v>-10028596.60733326</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
-      </c>
-      <c r="I503" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J503" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17601,19 +17135,11 @@
         <v>-10546818.60463326</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
-      </c>
-      <c r="I504" t="n">
-        <v>14</v>
-      </c>
-      <c r="J504" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I504" t="inlineStr"/>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17642,19 +17168,11 @@
         <v>-10546818.60463326</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
-      </c>
-      <c r="I505" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J505" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17683,19 +17201,11 @@
         <v>-10546818.60463326</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
-      </c>
-      <c r="I506" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J506" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17724,19 +17234,11 @@
         <v>-10546818.60463326</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
-      </c>
-      <c r="I507" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J507" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17765,19 +17267,11 @@
         <v>-10546818.60463326</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
-      </c>
-      <c r="I508" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J508" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17806,19 +17300,11 @@
         <v>-10546818.60463326</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
-      </c>
-      <c r="I509" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J509" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17847,19 +17333,11 @@
         <v>-10546818.60463326</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
-      </c>
-      <c r="I510" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J510" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17888,19 +17366,11 @@
         <v>-10546818.60463326</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
-      </c>
-      <c r="I511" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J511" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17929,19 +17399,11 @@
         <v>-10546818.60463326</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
-      </c>
-      <c r="I512" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J512" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17970,19 +17432,11 @@
         <v>-10546818.60463326</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
-      </c>
-      <c r="I513" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J513" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18011,19 +17465,11 @@
         <v>-10448091.59023326</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
-      </c>
-      <c r="I514" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J514" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I514" t="inlineStr"/>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18052,19 +17498,11 @@
         <v>-10448091.59023326</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
-      </c>
-      <c r="I515" t="n">
-        <v>14</v>
-      </c>
-      <c r="J515" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18093,19 +17531,11 @@
         <v>-10448091.59023326</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
-      </c>
-      <c r="I516" t="n">
-        <v>14</v>
-      </c>
-      <c r="J516" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18134,19 +17564,11 @@
         <v>-10448091.59023326</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
-      </c>
-      <c r="I517" t="n">
-        <v>14</v>
-      </c>
-      <c r="J517" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18175,19 +17597,11 @@
         <v>-10448091.59023326</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
-      </c>
-      <c r="I518" t="n">
-        <v>14</v>
-      </c>
-      <c r="J518" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18216,19 +17630,11 @@
         <v>-10448011.80303326</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
-      </c>
-      <c r="I519" t="n">
-        <v>14</v>
-      </c>
-      <c r="J519" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18257,19 +17663,11 @@
         <v>-10448011.80303326</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
-      </c>
-      <c r="I520" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J520" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18298,19 +17696,11 @@
         <v>-10517646.51353326</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
-      </c>
-      <c r="I521" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J521" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18339,19 +17729,11 @@
         <v>-10517527.51353326</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
-      </c>
-      <c r="I522" t="n">
-        <v>14</v>
-      </c>
-      <c r="J522" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18380,19 +17762,11 @@
         <v>-10517527.51353326</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
-      </c>
-      <c r="I523" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J523" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18421,19 +17795,11 @@
         <v>-10362927.90793044</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
-      </c>
-      <c r="I524" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J524" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18462,19 +17828,11 @@
         <v>-10135988.74524235</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
-      </c>
-      <c r="I525" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J525" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18503,19 +17861,11 @@
         <v>-10219955.04804235</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
-      </c>
-      <c r="I526" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="J526" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18544,19 +17894,11 @@
         <v>-10219955.04804235</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
-      </c>
-      <c r="I527" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J527" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18588,14 +17930,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18627,14 +17963,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18663,19 +17993,11 @@
         <v>-10223295.56084235</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
-      </c>
-      <c r="I530" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J530" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18704,19 +18026,11 @@
         <v>-10223295.56084235</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
-      </c>
-      <c r="I531" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J531" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18745,19 +18059,11 @@
         <v>-10223295.56084235</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
-      </c>
-      <c r="I532" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J532" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18786,19 +18092,11 @@
         <v>-10223295.56084235</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
-      </c>
-      <c r="I533" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J533" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18827,19 +18125,11 @@
         <v>-10257745.99554235</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
-      </c>
-      <c r="I534" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J534" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18868,19 +18158,11 @@
         <v>-10257686.20684235</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
-      </c>
-      <c r="I535" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J535" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18909,19 +18191,11 @@
         <v>-10528857.55484235</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
-      </c>
-      <c r="I536" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J536" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18950,19 +18224,11 @@
         <v>-10528857.55484235</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
-      </c>
-      <c r="I537" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J537" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18991,19 +18257,11 @@
         <v>-10528857.55484235</v>
       </c>
       <c r="H538" t="n">
-        <v>1</v>
-      </c>
-      <c r="I538" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J538" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19032,19 +18290,11 @@
         <v>-10528797.76614235</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
-      </c>
-      <c r="I539" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J539" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -19073,19 +18323,11 @@
         <v>-10528797.76614235</v>
       </c>
       <c r="H540" t="n">
-        <v>1</v>
-      </c>
-      <c r="I540" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J540" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I540" t="inlineStr"/>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -19114,19 +18356,11 @@
         <v>-10621144.12314235</v>
       </c>
       <c r="H541" t="n">
-        <v>1</v>
-      </c>
-      <c r="I541" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J541" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I541" t="inlineStr"/>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19155,19 +18389,11 @@
         <v>-10621144.12314235</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
-      </c>
-      <c r="I542" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J542" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19196,19 +18422,11 @@
         <v>-11258763.93794235</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
-      </c>
-      <c r="I543" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J543" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19237,19 +18455,11 @@
         <v>-11258763.93794235</v>
       </c>
       <c r="H544" t="n">
-        <v>1</v>
-      </c>
-      <c r="I544" t="n">
-        <v>14</v>
-      </c>
-      <c r="J544" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19278,19 +18488,11 @@
         <v>-11258683.93794235</v>
       </c>
       <c r="H545" t="n">
-        <v>1</v>
-      </c>
-      <c r="I545" t="n">
-        <v>14</v>
-      </c>
-      <c r="J545" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I545" t="inlineStr"/>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19319,19 +18521,11 @@
         <v>-11258683.93794235</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
-      </c>
-      <c r="I546" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J546" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19360,19 +18554,11 @@
         <v>-11007042.00954235</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
-      </c>
-      <c r="I547" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J547" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19401,19 +18587,11 @@
         <v>-10476335.90854235</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
-      </c>
-      <c r="I548" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J548" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19442,19 +18620,11 @@
         <v>-10476335.90854235</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
-      </c>
-      <c r="I549" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="J549" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19483,19 +18653,11 @@
         <v>-10990535.64704235</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
-      </c>
-      <c r="I550" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="J550" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19524,19 +18686,11 @@
         <v>-10964477.25544235</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
-      </c>
-      <c r="I551" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J551" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19565,19 +18719,11 @@
         <v>-10796081.73354235</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
-      </c>
-      <c r="I552" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="J552" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19606,19 +18752,11 @@
         <v>-10796081.73354235</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
-      </c>
-      <c r="I553" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J553" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19647,19 +18785,11 @@
         <v>-10973359.23724235</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
-      </c>
-      <c r="I554" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J554" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19688,19 +18818,11 @@
         <v>-9422788.152742349</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
-      </c>
-      <c r="I555" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="J555" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19729,19 +18851,11 @@
         <v>-7592593.883042349</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
-      </c>
-      <c r="I556" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J556" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19770,19 +18884,11 @@
         <v>-7605427.490542348</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
-      </c>
-      <c r="I557" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J557" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19811,19 +18917,11 @@
         <v>-7535872.656363728</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
-      </c>
-      <c r="I558" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J558" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19852,19 +18950,11 @@
         <v>-7870573.791163728</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
-      </c>
-      <c r="I559" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J559" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19893,19 +18983,11 @@
         <v>-7287208.068942348</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
-      </c>
-      <c r="I560" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J560" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19934,19 +19016,11 @@
         <v>-7287208.068942348</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
-      </c>
-      <c r="I561" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J561" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19975,19 +19049,11 @@
         <v>-7287208.068942348</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
-      </c>
-      <c r="I562" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J562" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -20019,14 +19085,8 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -20055,19 +19115,11 @@
         <v>-7287874.068942348</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
-      </c>
-      <c r="I564" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J564" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -20099,14 +19151,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -20138,14 +19184,8 @@
         <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20177,14 +19217,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20216,14 +19250,8 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20255,14 +19283,8 @@
         <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20294,14 +19316,8 @@
         <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20333,14 +19349,8 @@
         <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20372,14 +19382,8 @@
         <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20411,14 +19415,8 @@
         <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20450,14 +19448,8 @@
         <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20489,14 +19481,8 @@
         <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20528,14 +19514,8 @@
         <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20567,14 +19547,8 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20606,14 +19580,8 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20645,14 +19613,8 @@
         <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20684,14 +19646,8 @@
         <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20723,14 +19679,8 @@
         <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20762,14 +19712,8 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20801,14 +19745,8 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20840,14 +19778,8 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20879,14 +19811,8 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20918,14 +19844,8 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20957,14 +19877,8 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20996,14 +19910,8 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -21035,14 +19943,8 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -21074,14 +19976,8 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -21113,14 +20009,8 @@
         <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21152,14 +20042,8 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21191,14 +20075,8 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21230,14 +20108,8 @@
         <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21269,14 +20141,8 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21308,14 +20174,8 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21347,14 +20207,8 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21386,14 +20240,8 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21425,14 +20273,8 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21464,14 +20306,8 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21503,14 +20339,8 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21542,14 +20372,8 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21581,14 +20405,8 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21620,14 +20438,8 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21659,14 +20471,8 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21695,23 +20501,15 @@
         <v>-4138333.860183038</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
-        <v>1.097941176470588</v>
-      </c>
-      <c r="M606" t="n">
-        <v>1.116279069767442</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M606" t="inlineStr"/>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
@@ -21736,7 +20534,7 @@
         <v>-4480675.667483038</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -21769,7 +20567,7 @@
         <v>-4442709.622383039</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -21802,7 +20600,7 @@
         <v>-4442709.622383039</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -21835,7 +20633,7 @@
         <v>-4442709.622383039</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21868,7 +20666,7 @@
         <v>-4442709.622383039</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -21901,7 +20699,7 @@
         <v>-4578255.426483039</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -21934,7 +20732,7 @@
         <v>-5035868.255383039</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -21967,7 +20765,7 @@
         <v>-5035868.255383039</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22000,7 +20798,7 @@
         <v>-4964730.911183039</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22033,7 +20831,7 @@
         <v>-4869108.897783039</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22066,7 +20864,7 @@
         <v>-4869332.174983039</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22099,7 +20897,7 @@
         <v>-4869332.174983039</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22132,7 +20930,7 @@
         <v>-4749237.142283039</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22165,7 +20963,7 @@
         <v>-5922672.466783039</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22198,7 +20996,7 @@
         <v>-5919804.084683039</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22231,7 +21029,7 @@
         <v>-5919804.084683039</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22264,7 +21062,7 @@
         <v>-5919804.084683039</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22297,7 +21095,7 @@
         <v>-5995421.95128304</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22330,7 +21128,7 @@
         <v>-5995421.95128304</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22363,7 +21161,7 @@
         <v>-5826332.80518304</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22396,7 +21194,7 @@
         <v>-5613877.60288304</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22429,7 +21227,7 @@
         <v>-5613877.60288304</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22462,7 +21260,7 @@
         <v>-5613877.60288304</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22495,7 +21293,7 @@
         <v>-5706480.04418304</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22528,7 +21326,7 @@
         <v>-5706480.04418304</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22561,7 +21359,7 @@
         <v>-5706480.04418304</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22594,7 +21392,7 @@
         <v>-5706480.04418304</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22627,7 +21425,7 @@
         <v>-5706480.04418304</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22660,7 +21458,7 @@
         <v>-5706480.04418304</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22693,7 +21491,7 @@
         <v>-5714164.35498304</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22726,7 +21524,7 @@
         <v>-5714164.35498304</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22759,7 +21557,7 @@
         <v>-5976326.22248304</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22792,7 +21590,7 @@
         <v>-5976326.22248304</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22825,7 +21623,7 @@
         <v>-5955386.11068304</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22858,7 +21656,7 @@
         <v>-6046293.81078304</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22891,7 +21689,7 @@
         <v>-5758666.89258304</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22924,7 +21722,7 @@
         <v>-5758666.89258304</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22957,7 +21755,7 @@
         <v>-5758454.89258304</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22990,7 +21788,7 @@
         <v>-5758454.89258304</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -23023,7 +21821,7 @@
         <v>-5758454.89258304</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -23056,7 +21854,7 @@
         <v>-5794752.33208304</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -23089,7 +21887,7 @@
         <v>-5724004.02398304</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -23122,7 +21920,7 @@
         <v>-5724004.02398304</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -23155,7 +21953,7 @@
         <v>-5724004.02398304</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -23188,7 +21986,7 @@
         <v>-5724004.02398304</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -23221,7 +22019,7 @@
         <v>-5724004.02398304</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -23254,7 +22052,7 @@
         <v>-5724004.02398304</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -23287,7 +22085,7 @@
         <v>-5724004.02398304</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23320,7 +22118,7 @@
         <v>-5792425.07858304</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23353,7 +22151,7 @@
         <v>-6049768.59198304</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23386,7 +22184,7 @@
         <v>-6049768.59198304</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23419,7 +22217,7 @@
         <v>-6051135.10048304</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23551,7 +22349,7 @@
         <v>-5986080.846483041</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -24541,7 +23339,7 @@
         <v>-6214611.560183041</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -24838,7 +23636,7 @@
         <v>-6231447.542083041</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -27478,14 +26276,10 @@
         <v>-10372242.40607682</v>
       </c>
       <c r="H781" t="n">
-        <v>1</v>
-      </c>
-      <c r="I781" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="J781" t="n">
-        <v>14.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I781" t="inlineStr"/>
+      <c r="J781" t="inlineStr"/>
       <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
@@ -27518,14 +26312,8 @@
         <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J782" t="inlineStr"/>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -27554,19 +26342,11 @@
         <v>-10246494.3162546</v>
       </c>
       <c r="H783" t="n">
-        <v>1</v>
-      </c>
-      <c r="I783" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J783" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I783" t="inlineStr"/>
+      <c r="J783" t="inlineStr"/>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -27595,14 +26375,10 @@
         <v>-10246494.3162546</v>
       </c>
       <c r="H784" t="n">
-        <v>1</v>
-      </c>
-      <c r="I784" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J784" t="n">
-        <v>14.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I784" t="inlineStr"/>
+      <c r="J784" t="inlineStr"/>
       <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
@@ -27632,19 +26408,11 @@
         <v>-10246483.3162546</v>
       </c>
       <c r="H785" t="n">
-        <v>1</v>
-      </c>
-      <c r="I785" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J785" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I785" t="inlineStr"/>
+      <c r="J785" t="inlineStr"/>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27673,19 +26441,11 @@
         <v>-10257432.8222546</v>
       </c>
       <c r="H786" t="n">
-        <v>1</v>
-      </c>
-      <c r="I786" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J786" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I786" t="inlineStr"/>
+      <c r="J786" t="inlineStr"/>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27714,14 +26474,10 @@
         <v>-9252031.567254597</v>
       </c>
       <c r="H787" t="n">
-        <v>1</v>
-      </c>
-      <c r="I787" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="J787" t="n">
-        <v>14.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I787" t="inlineStr"/>
+      <c r="J787" t="inlineStr"/>
       <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
@@ -27751,19 +26507,11 @@
         <v>-9252031.567254597</v>
       </c>
       <c r="H788" t="n">
-        <v>1</v>
-      </c>
-      <c r="I788" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J788" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I788" t="inlineStr"/>
+      <c r="J788" t="inlineStr"/>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -27792,19 +26540,11 @@
         <v>-9252031.567254597</v>
       </c>
       <c r="H789" t="n">
-        <v>1</v>
-      </c>
-      <c r="I789" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J789" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I789" t="inlineStr"/>
+      <c r="J789" t="inlineStr"/>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -27833,19 +26573,11 @@
         <v>-9252021.567254597</v>
       </c>
       <c r="H790" t="n">
-        <v>1</v>
-      </c>
-      <c r="I790" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="J790" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I790" t="inlineStr"/>
+      <c r="J790" t="inlineStr"/>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -27874,19 +26606,11 @@
         <v>-9252021.567254597</v>
       </c>
       <c r="H791" t="n">
-        <v>1</v>
-      </c>
-      <c r="I791" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="J791" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I791" t="inlineStr"/>
+      <c r="J791" t="inlineStr"/>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -27918,14 +26642,8 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J792" t="inlineStr"/>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -27957,14 +26675,8 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J793" t="inlineStr"/>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -27996,14 +26708,8 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J794" t="inlineStr"/>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -28035,14 +26741,8 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J795" t="inlineStr"/>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -28074,14 +26774,8 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J796" t="inlineStr"/>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -28113,14 +26807,8 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J797" t="inlineStr"/>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -28152,14 +26840,8 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J798" t="inlineStr"/>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -28191,14 +26873,8 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J799" t="inlineStr"/>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -28230,14 +26906,8 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J800" t="inlineStr"/>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -28269,14 +26939,8 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J801" t="inlineStr"/>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -28308,14 +26972,8 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J802" t="inlineStr"/>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -28347,14 +27005,8 @@
         <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
-      <c r="J803" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J803" t="inlineStr"/>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -28386,14 +27038,8 @@
         <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
-      <c r="J804" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K804" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J804" t="inlineStr"/>
+      <c r="K804" t="inlineStr"/>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -28425,14 +27071,8 @@
         <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
-      <c r="J805" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K805" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J805" t="inlineStr"/>
+      <c r="K805" t="inlineStr"/>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -28464,14 +27104,8 @@
         <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
-      <c r="J806" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J806" t="inlineStr"/>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -28503,14 +27137,8 @@
         <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
-      <c r="J807" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K807" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J807" t="inlineStr"/>
+      <c r="K807" t="inlineStr"/>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -28542,14 +27170,8 @@
         <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
-      <c r="J808" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K808" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J808" t="inlineStr"/>
+      <c r="K808" t="inlineStr"/>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -28581,14 +27203,8 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J809" t="inlineStr"/>
+      <c r="K809" t="inlineStr"/>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -28620,14 +27236,8 @@
         <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
-      <c r="J810" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K810" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J810" t="inlineStr"/>
+      <c r="K810" t="inlineStr"/>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -28659,14 +27269,8 @@
         <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
-      <c r="J811" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K811" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J811" t="inlineStr"/>
+      <c r="K811" t="inlineStr"/>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -28698,14 +27302,8 @@
         <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
-      <c r="J812" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K812" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J812" t="inlineStr"/>
+      <c r="K812" t="inlineStr"/>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -28737,14 +27335,8 @@
         <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
-      <c r="J813" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K813" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J813" t="inlineStr"/>
+      <c r="K813" t="inlineStr"/>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -28776,14 +27368,8 @@
         <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
-      <c r="J814" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K814" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J814" t="inlineStr"/>
+      <c r="K814" t="inlineStr"/>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -28815,14 +27401,8 @@
         <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
-      <c r="J815" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K815" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J815" t="inlineStr"/>
+      <c r="K815" t="inlineStr"/>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -28854,14 +27434,8 @@
         <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
-      <c r="J816" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K816" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J816" t="inlineStr"/>
+      <c r="K816" t="inlineStr"/>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -28893,14 +27467,8 @@
         <v>0</v>
       </c>
       <c r="I817" t="inlineStr"/>
-      <c r="J817" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K817" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J817" t="inlineStr"/>
+      <c r="K817" t="inlineStr"/>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -28932,14 +27500,8 @@
         <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
-      <c r="J818" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K818" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J818" t="inlineStr"/>
+      <c r="K818" t="inlineStr"/>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -28971,14 +27533,8 @@
         <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K819" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J819" t="inlineStr"/>
+      <c r="K819" t="inlineStr"/>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -29010,14 +27566,8 @@
         <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
-      <c r="J820" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K820" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J820" t="inlineStr"/>
+      <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -29049,14 +27599,8 @@
         <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
-      <c r="J821" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J821" t="inlineStr"/>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -29088,14 +27632,8 @@
         <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
-      <c r="J822" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J822" t="inlineStr"/>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -29127,14 +27665,8 @@
         <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
-      <c r="J823" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J823" t="inlineStr"/>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -29166,14 +27698,8 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J824" t="inlineStr"/>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -29205,14 +27731,8 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J825" t="inlineStr"/>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -29244,14 +27764,8 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J826" t="inlineStr"/>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -29283,14 +27797,8 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J827" t="inlineStr"/>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -29322,14 +27830,8 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J828" t="inlineStr"/>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -29361,14 +27863,8 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J829" t="inlineStr"/>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -29400,14 +27896,8 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J830" t="inlineStr"/>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -29439,14 +27929,8 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J831" t="inlineStr"/>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -29478,14 +27962,8 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J832" t="inlineStr"/>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -29517,14 +27995,8 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J833" t="inlineStr"/>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -29556,14 +28028,8 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J834" t="inlineStr"/>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -29595,14 +28061,8 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J835" t="inlineStr"/>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -29634,14 +28094,8 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J836" t="inlineStr"/>
+      <c r="K836" t="inlineStr"/>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -29673,14 +28127,8 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J837" t="inlineStr"/>
+      <c r="K837" t="inlineStr"/>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -29712,14 +28160,8 @@
         <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
-      <c r="J838" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J838" t="inlineStr"/>
+      <c r="K838" t="inlineStr"/>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -29751,14 +28193,8 @@
         <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
-      <c r="J839" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J839" t="inlineStr"/>
+      <c r="K839" t="inlineStr"/>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -29790,14 +28226,8 @@
         <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
-      <c r="J840" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J840" t="inlineStr"/>
+      <c r="K840" t="inlineStr"/>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -29829,14 +28259,8 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J841" t="inlineStr"/>
+      <c r="K841" t="inlineStr"/>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -29868,14 +28292,8 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J842" t="inlineStr"/>
+      <c r="K842" t="inlineStr"/>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -29907,14 +28325,8 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J843" t="inlineStr"/>
+      <c r="K843" t="inlineStr"/>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -29946,14 +28358,8 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J844" t="inlineStr"/>
+      <c r="K844" t="inlineStr"/>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -29985,14 +28391,8 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K845" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J845" t="inlineStr"/>
+      <c r="K845" t="inlineStr"/>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -30024,14 +28424,8 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K846" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J846" t="inlineStr"/>
+      <c r="K846" t="inlineStr"/>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -30063,14 +28457,8 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K847" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J847" t="inlineStr"/>
+      <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -30102,20 +28490,14 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
-        <v>14.4</v>
-      </c>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J848" t="inlineStr"/>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
       <c r="M848" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>